--- a/UnityEliminate/Save.xlsx
+++ b/UnityEliminate/Save.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,19 +57,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>线程安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>好</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqlite</t>
   </si>
   <si>
     <t>读取时间</t>
@@ -442,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:5" ht="16.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,16 +454,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -487,7 +477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -501,10 +491,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -521,7 +511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -535,12 +525,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/UnityEliminate/Save.xlsx
+++ b/UnityEliminate/Save.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,14 @@
   </si>
   <si>
     <t>读取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万文件存储写入文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万文件读文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,15 +443,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +471,14 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -476,8 +494,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2">
+        <v>83</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -493,8 +514,10 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -510,8 +533,9 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -527,6 +551,7 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/UnityEliminate/Save.xlsx
+++ b/UnityEliminate/Save.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -514,7 +514,9 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>14</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">

--- a/UnityEliminate/Save.xlsx
+++ b/UnityEliminate/Save.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -535,7 +535,9 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -553,7 +555,9 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/UnityEliminate/Save.xlsx
+++ b/UnityEliminate/Save.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -497,6 +497,9 @@
       <c r="F2">
         <v>14</v>
       </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -517,7 +520,9 @@
       <c r="F3" s="2">
         <v>14</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -538,6 +543,9 @@
       <c r="F4" s="2">
         <v>15</v>
       </c>
+      <c r="G4" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -556,6 +564,9 @@
         <v>10</v>
       </c>
       <c r="F5" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
         <v>15</v>
       </c>
     </row>

--- a/UnityEliminate/Save.xlsx
+++ b/UnityEliminate/Save.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,11 +69,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1万文件存储写入文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万文件读文件</t>
+    <t>1万文件存储写入文件（秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万文件读文件（秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万文件存储写入文件（分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万文件存储读入文件（分）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,19 +451,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="22.125" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="33.25" customWidth="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +487,14 @@
       <c r="G1" t="s">
         <v>14</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -495,13 +511,16 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>19.297000000000001</v>
       </c>
       <c r="G2">
         <v>15</v>
       </c>
+      <c r="H2">
+        <v>2.9775999999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -518,13 +537,16 @@
         <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>14</v>
+        <v>14.858000000000001</v>
       </c>
       <c r="G3" s="2">
         <v>15</v>
       </c>
+      <c r="H3" s="2">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -541,13 +563,16 @@
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
         <v>15</v>
       </c>
+      <c r="H4" s="2">
+        <v>2.48</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -564,10 +589,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2">
-        <v>15</v>
+        <v>17.808</v>
       </c>
       <c r="G5" s="2">
         <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.78</v>
       </c>
     </row>
   </sheetData>
